--- a/SchedulingData/dynamic9/pso/scheduling1_19.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling1_19.xlsx
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>90.5</v>
+        <v>87.3</v>
       </c>
       <c r="E2" t="n">
-        <v>25.08</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>81.2</v>
+        <v>63.6</v>
       </c>
       <c r="E3" t="n">
-        <v>24.54</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>81.2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>145.48</v>
+        <v>45.28</v>
       </c>
       <c r="E4" t="n">
-        <v>20.732</v>
+        <v>26.172</v>
       </c>
     </row>
     <row r="5">
@@ -523,17 +523,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>63.6</v>
       </c>
       <c r="D5" t="n">
-        <v>82.3</v>
+        <v>126.3</v>
       </c>
       <c r="E5" t="n">
-        <v>26.4</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="6">
@@ -542,112 +542,112 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>70.28</v>
+        <v>73.92</v>
       </c>
       <c r="E6" t="n">
-        <v>26.172</v>
+        <v>25.268</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>73.92</v>
       </c>
       <c r="D7" t="n">
-        <v>62.02</v>
+        <v>117.4</v>
       </c>
       <c r="E7" t="n">
-        <v>25.968</v>
+        <v>22.54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>145.48</v>
+        <v>45.28</v>
       </c>
       <c r="D8" t="n">
-        <v>198.18</v>
+        <v>129.78</v>
       </c>
       <c r="E8" t="n">
-        <v>16.592</v>
+        <v>22.792</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>62.02</v>
+        <v>129.78</v>
       </c>
       <c r="D9" t="n">
-        <v>118.16</v>
+        <v>176.66</v>
       </c>
       <c r="E9" t="n">
-        <v>22.484</v>
+        <v>18.744</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>87.3</v>
       </c>
       <c r="D10" t="n">
-        <v>76</v>
+        <v>156.28</v>
       </c>
       <c r="E10" t="n">
-        <v>25.58</v>
+        <v>22.592</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>70.28</v>
+        <v>156.28</v>
       </c>
       <c r="D11" t="n">
-        <v>128.28</v>
+        <v>201.12</v>
       </c>
       <c r="E11" t="n">
-        <v>22.012</v>
+        <v>19.248</v>
       </c>
     </row>
     <row r="12">
@@ -656,36 +656,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>82.3</v>
+        <v>126.3</v>
       </c>
       <c r="D12" t="n">
-        <v>127.5</v>
+        <v>190.32</v>
       </c>
       <c r="E12" t="n">
-        <v>23.02</v>
+        <v>18.408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>90.5</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>158.92</v>
+        <v>61.64</v>
       </c>
       <c r="E13" t="n">
-        <v>20.348</v>
+        <v>26.516</v>
       </c>
     </row>
     <row r="14">
@@ -694,22 +694,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>198.18</v>
+        <v>201.12</v>
       </c>
       <c r="D14" t="n">
-        <v>264.66</v>
+        <v>253.28</v>
       </c>
       <c r="E14" t="n">
-        <v>12.544</v>
+        <v>16.652</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>76</v>
+        <v>61.64</v>
       </c>
       <c r="D15" t="n">
-        <v>143.6</v>
+        <v>119.24</v>
       </c>
       <c r="E15" t="n">
-        <v>21.44</v>
+        <v>22.376</v>
       </c>
     </row>
     <row r="16">
@@ -732,131 +732,131 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>158.92</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>202.4</v>
+        <v>82.02</v>
       </c>
       <c r="E16" t="n">
-        <v>17.62</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>143.6</v>
+        <v>119.24</v>
       </c>
       <c r="D17" t="n">
-        <v>199.62</v>
+        <v>179.62</v>
       </c>
       <c r="E17" t="n">
-        <v>18.448</v>
+        <v>19.428</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>127.5</v>
+        <v>117.4</v>
       </c>
       <c r="D18" t="n">
-        <v>174.52</v>
+        <v>177.9</v>
       </c>
       <c r="E18" t="n">
-        <v>20.428</v>
+        <v>17.62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>118.16</v>
+        <v>176.66</v>
       </c>
       <c r="D19" t="n">
-        <v>177.28</v>
+        <v>244.06</v>
       </c>
       <c r="E19" t="n">
-        <v>18.692</v>
+        <v>14.604</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>199.62</v>
+        <v>179.62</v>
       </c>
       <c r="D20" t="n">
-        <v>266.66</v>
+        <v>231.22</v>
       </c>
       <c r="E20" t="n">
-        <v>14.864</v>
+        <v>16.388</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>264.66</v>
+        <v>190.32</v>
       </c>
       <c r="D21" t="n">
-        <v>318.3</v>
+        <v>243.64</v>
       </c>
       <c r="E21" t="n">
-        <v>8.800000000000001</v>
+        <v>15.196</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>202.4</v>
+        <v>253.28</v>
       </c>
       <c r="D22" t="n">
-        <v>269.1</v>
+        <v>330.42</v>
       </c>
       <c r="E22" t="n">
-        <v>14.58</v>
+        <v>13.068</v>
       </c>
     </row>
     <row r="23">
@@ -865,17 +865,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>128.28</v>
+        <v>177.9</v>
       </c>
       <c r="D23" t="n">
-        <v>177.92</v>
+        <v>231.54</v>
       </c>
       <c r="E23" t="n">
-        <v>18.668</v>
+        <v>13.876</v>
       </c>
     </row>
     <row r="24">
@@ -884,17 +884,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>174.52</v>
+        <v>243.64</v>
       </c>
       <c r="D24" t="n">
-        <v>241.42</v>
+        <v>312.32</v>
       </c>
       <c r="E24" t="n">
-        <v>16.348</v>
+        <v>12.908</v>
       </c>
     </row>
     <row r="25">
@@ -903,17 +903,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>269.1</v>
+        <v>82.02</v>
       </c>
       <c r="D25" t="n">
-        <v>314.98</v>
+        <v>124.24</v>
       </c>
       <c r="E25" t="n">
-        <v>11.612</v>
+        <v>23.376</v>
       </c>
     </row>
     <row r="26">
@@ -922,112 +922,112 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>177.92</v>
+        <v>231.54</v>
       </c>
       <c r="D26" t="n">
-        <v>230.08</v>
+        <v>277.66</v>
       </c>
       <c r="E26" t="n">
-        <v>16.072</v>
+        <v>10.884</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>230.08</v>
+        <v>124.24</v>
       </c>
       <c r="D27" t="n">
-        <v>287.58</v>
+        <v>185.24</v>
       </c>
       <c r="E27" t="n">
-        <v>12.432</v>
+        <v>17.916</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>241.42</v>
+        <v>277.66</v>
       </c>
       <c r="D28" t="n">
-        <v>300.6</v>
+        <v>330.56</v>
       </c>
       <c r="E28" t="n">
-        <v>14.06</v>
+        <v>7.224</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>287.58</v>
+        <v>185.24</v>
       </c>
       <c r="D29" t="n">
-        <v>363.06</v>
+        <v>257.14</v>
       </c>
       <c r="E29" t="n">
-        <v>9.484</v>
+        <v>13.836</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>300.6</v>
+        <v>231.22</v>
       </c>
       <c r="D30" t="n">
-        <v>368.4</v>
+        <v>277.1</v>
       </c>
       <c r="E30" t="n">
-        <v>10.4</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>177.28</v>
+        <v>244.06</v>
       </c>
       <c r="D31" t="n">
-        <v>230.6</v>
+        <v>299.56</v>
       </c>
       <c r="E31" t="n">
-        <v>15.48</v>
+        <v>10.184</v>
       </c>
     </row>
   </sheetData>
